--- a/CARGA LECTIVA ORDINARIOS  Y CONTRATADOS 2026-I.xlsx
+++ b/CARGA LECTIVA ORDINARIOS  Y CONTRATADOS 2026-I.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EPIS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EPIS\Desktop\PTOYECT\SistemaCargaLectiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Contratado (2)'!$A$1:$I$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ordinario octubre (2)'!$A$1:$I$182</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Ordinario octubre (2)'!$A$1:$I$209</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="58">
   <si>
     <t>N°</t>
   </si>
@@ -610,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,44 +882,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -927,38 +987,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -969,41 +1014,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,59 +1044,191 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1693,10 +1852,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A159" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,75 +1870,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="102" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="99" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="105"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="27" t="s">
         <v>7</v>
       </c>
@@ -1789,13 +1948,13 @@
       <c r="F5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="93">
+      <c r="A6" s="106">
         <v>1</v>
       </c>
       <c r="B6" s="3"/>
@@ -1808,7 +1967,7 @@
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="79"/>
@@ -1820,7 +1979,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="79"/>
@@ -1832,7 +1991,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="79"/>
@@ -1844,7 +2003,7 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="79"/>
@@ -1856,13 +2015,13 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
       <c r="F11" s="30">
         <f>SUM(F6:F10)</f>
         <v>0</v>
@@ -1873,47 +2032,47 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="102" t="s">
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="102" t="s">
+      <c r="H13" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="102" t="s">
+      <c r="I13" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="131"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="103"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="105"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="27" t="s">
         <v>7</v>
       </c>
@@ -1923,13 +2082,13 @@
       <c r="F14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="131"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="93">
+      <c r="A15" s="106">
         <v>2</v>
       </c>
       <c r="B15" s="6"/>
@@ -1943,7 +2102,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="32"/>
@@ -1955,7 +2114,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="94"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="32"/>
@@ -1967,7 +2126,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="94"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="32"/>
@@ -1979,7 +2138,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="32"/>
@@ -1991,13 +2150,13 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="110"/>
+      <c r="B20" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="30">
         <f>SUM(F15:F19)</f>
         <v>0</v>
@@ -2008,39 +2167,39 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="102" t="s">
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="102" t="s">
+      <c r="I22" s="99" t="s">
         <v>6</v>
       </c>
       <c r="J22" s="1"/>
@@ -2050,9 +2209,9 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="105"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="27" t="s">
         <v>7</v>
       </c>
@@ -2062,9 +2221,9 @@
       <c r="F23" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2131,12 +2290,12 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
       <c r="F29" s="30">
         <f>SUM(F24:F28)</f>
         <v>0</v>
@@ -2147,47 +2306,47 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="129"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="102" t="s">
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="102" t="s">
+      <c r="H31" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="102" t="s">
+      <c r="I31" s="99" t="s">
         <v>6</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="105"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="27" t="s">
         <v>7</v>
       </c>
@@ -2197,9 +2356,9 @@
       <c r="F32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2253,7 +2412,7 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="93"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="19"/>
@@ -2265,13 +2424,13 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="98"/>
-      <c r="B38" s="95" t="s">
+      <c r="A38" s="110"/>
+      <c r="B38" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
       <c r="F38" s="30">
         <f>SUM(F33:F37)</f>
         <v>0</v>
@@ -2282,47 +2441,47 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="130"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="111"/>
+      <c r="I39" s="111"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="109" t="s">
+      <c r="D40" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="110"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="112" t="s">
+      <c r="E40" s="119"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="112" t="s">
+      <c r="I40" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="115"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="117"/>
       <c r="D41" s="70" t="s">
         <v>13</v>
       </c>
@@ -2332,13 +2491,13 @@
       <c r="F41" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="128">
+      <c r="A42" s="121">
         <v>5</v>
       </c>
       <c r="B42" s="11"/>
@@ -2352,7 +2511,7 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="128"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="82"/>
@@ -2364,7 +2523,7 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="128"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="82"/>
@@ -2376,7 +2535,7 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="128"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="82"/>
@@ -2388,7 +2547,7 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="128"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="82"/>
@@ -2400,13 +2559,13 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="128"/>
-      <c r="B47" s="127" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
       <c r="F47" s="33">
         <f>SUM(F42:F46)</f>
         <v>0</v>
@@ -2417,47 +2576,47 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="129"/>
-      <c r="B48" s="129"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="95" t="s">
+      <c r="D49" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="96"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="102" t="s">
+      <c r="E49" s="104"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="102" t="s">
+      <c r="H49" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="102" t="s">
+      <c r="I49" s="99" t="s">
         <v>6</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="103"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="105"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="27" t="s">
         <v>7</v>
       </c>
@@ -2467,9 +2626,9 @@
       <c r="F50" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2536,12 +2695,12 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="97"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="105"/>
       <c r="F56" s="30">
         <f>SUM(F51:F55)</f>
         <v>0</v>
@@ -2552,47 +2711,47 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="96"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="102" t="s">
+      <c r="E58" s="104"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="102" t="s">
+      <c r="H58" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="102" t="s">
+      <c r="I58" s="99" t="s">
         <v>6</v>
       </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="103"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="105"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="27" t="s">
         <v>7</v>
       </c>
@@ -2602,13 +2761,13 @@
       <c r="F59" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="93">
+      <c r="A60" s="106">
         <v>7</v>
       </c>
       <c r="B60" s="24"/>
@@ -2622,7 +2781,7 @@
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="94"/>
+      <c r="A61" s="107"/>
       <c r="B61" s="24"/>
       <c r="C61" s="18"/>
       <c r="D61" s="82"/>
@@ -2634,7 +2793,7 @@
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="94"/>
+      <c r="A62" s="107"/>
       <c r="B62" s="24"/>
       <c r="C62" s="18"/>
       <c r="D62" s="82"/>
@@ -2646,7 +2805,7 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="94"/>
+      <c r="A63" s="107"/>
       <c r="B63" s="24"/>
       <c r="C63" s="18"/>
       <c r="D63" s="82"/>
@@ -2658,7 +2817,7 @@
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="94"/>
+      <c r="A64" s="107"/>
       <c r="B64" s="14"/>
       <c r="C64" s="17"/>
       <c r="D64" s="25"/>
@@ -2670,13 +2829,13 @@
       <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="98"/>
-      <c r="B65" s="95" t="s">
+      <c r="A65" s="110"/>
+      <c r="B65" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="97"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="105"/>
       <c r="F65" s="30">
         <f>SUM(F60:F64)</f>
         <v>0</v>
@@ -2687,48 +2846,48 @@
       <c r="J65" s="1"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="100"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="101"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="98"/>
       <c r="J66" s="1"/>
       <c r="K66" s="41"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="104" t="s">
+      <c r="C67" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="95" t="s">
+      <c r="D67" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="96"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="102" t="s">
+      <c r="E67" s="104"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="102" t="s">
+      <c r="H67" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="102" t="s">
+      <c r="I67" s="99" t="s">
         <v>6</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="103"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="105"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="27" t="s">
         <v>7</v>
       </c>
@@ -2738,13 +2897,13 @@
       <c r="F68" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="103"/>
-      <c r="H68" s="103"/>
-      <c r="I68" s="103"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="93">
+      <c r="A69" s="106">
         <v>8</v>
       </c>
       <c r="B69" s="14"/>
@@ -2758,7 +2917,7 @@
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="94"/>
+      <c r="A70" s="107"/>
       <c r="B70" s="14"/>
       <c r="C70" s="17"/>
       <c r="D70" s="36"/>
@@ -2770,7 +2929,7 @@
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="94"/>
+      <c r="A71" s="107"/>
       <c r="B71" s="14"/>
       <c r="C71" s="17"/>
       <c r="D71" s="36"/>
@@ -2782,7 +2941,7 @@
       <c r="J71" s="1"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="94"/>
+      <c r="A72" s="107"/>
       <c r="B72" s="14"/>
       <c r="C72" s="17"/>
       <c r="D72" s="36"/>
@@ -2794,7 +2953,7 @@
       <c r="J72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="94"/>
+      <c r="A73" s="107"/>
       <c r="B73" s="14"/>
       <c r="C73" s="17"/>
       <c r="D73" s="36"/>
@@ -2806,13 +2965,13 @@
       <c r="J73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="98"/>
-      <c r="B74" s="95" t="s">
+      <c r="A74" s="110"/>
+      <c r="B74" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="97"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="105"/>
       <c r="F74" s="30">
         <f>SUM(F69:F73)</f>
         <v>0</v>
@@ -2823,47 +2982,47 @@
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="124"/>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
-      <c r="G75" s="125"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="126"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="125"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="112" t="s">
+      <c r="A76" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="112" t="s">
+      <c r="B76" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="114" t="s">
+      <c r="C76" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="109" t="s">
+      <c r="D76" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="110"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="112" t="s">
+      <c r="E76" s="119"/>
+      <c r="F76" s="120"/>
+      <c r="G76" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H76" s="112" t="s">
+      <c r="H76" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="112" t="s">
+      <c r="I76" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="113"/>
-      <c r="B77" s="113"/>
-      <c r="C77" s="115"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="117"/>
       <c r="D77" s="70" t="s">
         <v>13</v>
       </c>
@@ -2873,13 +3032,13 @@
       <c r="F77" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="113"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="113"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="106">
+      <c r="A78" s="126">
         <v>9</v>
       </c>
       <c r="B78" s="8"/>
@@ -2893,7 +3052,7 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="107"/>
+      <c r="A79" s="127"/>
       <c r="B79" s="8"/>
       <c r="C79" s="9"/>
       <c r="D79" s="82"/>
@@ -2905,7 +3064,7 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="107"/>
+      <c r="A80" s="127"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9"/>
       <c r="D80" s="82"/>
@@ -2917,7 +3076,7 @@
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="107"/>
+      <c r="A81" s="127"/>
       <c r="B81" s="8"/>
       <c r="C81" s="9"/>
       <c r="D81" s="82"/>
@@ -2929,7 +3088,7 @@
       <c r="J81" s="1"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="107"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="25"/>
@@ -2942,12 +3101,12 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="15"/>
-      <c r="B83" s="95" t="s">
+      <c r="B83" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="97"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="105"/>
       <c r="F83" s="30">
         <f>SUM(F78:F82)</f>
         <v>0</v>
@@ -2958,47 +3117,47 @@
       <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="99"/>
-      <c r="B84" s="100"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="100"/>
-      <c r="E84" s="100"/>
-      <c r="F84" s="100"/>
-      <c r="G84" s="100"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="101"/>
+      <c r="A84" s="96"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="98"/>
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="112" t="s">
+      <c r="A85" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="112" t="s">
+      <c r="B85" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="114" t="s">
+      <c r="C85" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="116" t="s">
+      <c r="D85" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="117"/>
-      <c r="F85" s="118"/>
-      <c r="G85" s="112" t="s">
+      <c r="E85" s="129"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="112" t="s">
+      <c r="H85" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I85" s="112" t="s">
+      <c r="I85" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J85" s="1"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="113"/>
-      <c r="B86" s="113"/>
-      <c r="C86" s="115"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="117"/>
       <c r="D86" s="70" t="s">
         <v>13</v>
       </c>
@@ -3008,13 +3167,13 @@
       <c r="F86" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="113"/>
-      <c r="H86" s="113"/>
-      <c r="I86" s="113"/>
+      <c r="G86" s="115"/>
+      <c r="H86" s="115"/>
+      <c r="I86" s="115"/>
       <c r="J86" s="1"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="106">
+      <c r="A87" s="126">
         <v>10</v>
       </c>
       <c r="B87" s="17"/>
@@ -3028,7 +3187,7 @@
       <c r="J87" s="1"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="107"/>
+      <c r="A88" s="127"/>
       <c r="B88" s="86"/>
       <c r="C88" s="16"/>
       <c r="D88" s="82"/>
@@ -3040,7 +3199,7 @@
       <c r="J88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="107"/>
+      <c r="A89" s="127"/>
       <c r="B89" s="86"/>
       <c r="C89" s="16"/>
       <c r="D89" s="82"/>
@@ -3052,7 +3211,7 @@
       <c r="J89" s="1"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
+      <c r="A90" s="127"/>
       <c r="B90" s="12"/>
       <c r="C90" s="16"/>
       <c r="D90" s="25"/>
@@ -3064,7 +3223,7 @@
       <c r="J90" s="1"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
+      <c r="A91" s="127"/>
       <c r="B91" s="11"/>
       <c r="C91" s="17"/>
       <c r="D91" s="25"/>
@@ -3076,13 +3235,13 @@
       <c r="J91" s="1"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="108"/>
-      <c r="B92" s="109" t="s">
+      <c r="A92" s="131"/>
+      <c r="B92" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="110"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="111"/>
+      <c r="C92" s="119"/>
+      <c r="D92" s="119"/>
+      <c r="E92" s="120"/>
       <c r="F92" s="33">
         <f>SUM(F87:F91)</f>
         <v>0</v>
@@ -3093,46 +3252,46 @@
       <c r="J92" s="1"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="99"/>
-      <c r="B93" s="100"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="100"/>
-      <c r="G93" s="100"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="101"/>
+      <c r="A93" s="96"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
+      <c r="I93" s="98"/>
       <c r="J93" s="1"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="112" t="s">
+      <c r="A94" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="112" t="s">
+      <c r="B94" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="114" t="s">
+      <c r="C94" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="109" t="s">
+      <c r="D94" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="110"/>
-      <c r="F94" s="111"/>
-      <c r="G94" s="112" t="s">
+      <c r="E94" s="119"/>
+      <c r="F94" s="120"/>
+      <c r="G94" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="112" t="s">
+      <c r="H94" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I94" s="112" t="s">
+      <c r="I94" s="114" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="113"/>
-      <c r="B95" s="113"/>
-      <c r="C95" s="115"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="117"/>
       <c r="D95" s="70" t="s">
         <v>13</v>
       </c>
@@ -3142,12 +3301,12 @@
       <c r="F95" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="113"/>
-      <c r="H95" s="113"/>
-      <c r="I95" s="113"/>
+      <c r="G95" s="115"/>
+      <c r="H95" s="115"/>
+      <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="106">
+      <c r="A96" s="126">
         <v>11</v>
       </c>
       <c r="B96" s="12"/>
@@ -3160,7 +3319,7 @@
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="107"/>
+      <c r="A97" s="127"/>
       <c r="B97" s="12"/>
       <c r="C97" s="16"/>
       <c r="D97" s="82"/>
@@ -3171,7 +3330,7 @@
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="107"/>
+      <c r="A98" s="127"/>
       <c r="B98" s="12"/>
       <c r="C98" s="16"/>
       <c r="D98" s="82"/>
@@ -3182,7 +3341,7 @@
       <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="107"/>
+      <c r="A99" s="127"/>
       <c r="B99" s="12"/>
       <c r="C99" s="16"/>
       <c r="D99" s="82"/>
@@ -3193,7 +3352,7 @@
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="107"/>
+      <c r="A100" s="127"/>
       <c r="B100" s="12"/>
       <c r="C100" s="16"/>
       <c r="D100" s="82"/>
@@ -3204,13 +3363,13 @@
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="108"/>
-      <c r="B101" s="127" t="s">
+      <c r="A101" s="131"/>
+      <c r="B101" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="127"/>
-      <c r="D101" s="127"/>
-      <c r="E101" s="127"/>
+      <c r="C101" s="122"/>
+      <c r="D101" s="122"/>
+      <c r="E101" s="122"/>
       <c r="F101" s="33">
         <f>SUM(F96:F100)</f>
         <v>0</v>
@@ -3220,47 +3379,47 @@
       <c r="I101" s="21"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="101"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="97"/>
+      <c r="G102" s="97"/>
+      <c r="H102" s="97"/>
+      <c r="I102" s="98"/>
       <c r="J102" s="1"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="112" t="s">
+      <c r="A103" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="112" t="s">
+      <c r="B103" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="114" t="s">
+      <c r="C103" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="116" t="s">
+      <c r="D103" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="117"/>
-      <c r="F103" s="118"/>
-      <c r="G103" s="112" t="s">
+      <c r="E103" s="129"/>
+      <c r="F103" s="130"/>
+      <c r="G103" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H103" s="112" t="s">
+      <c r="H103" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I103" s="112" t="s">
+      <c r="I103" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J103" s="1"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="113"/>
-      <c r="B104" s="113"/>
-      <c r="C104" s="115"/>
+      <c r="A104" s="115"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="117"/>
       <c r="D104" s="70" t="s">
         <v>13</v>
       </c>
@@ -3270,13 +3429,13 @@
       <c r="F104" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="113"/>
-      <c r="H104" s="113"/>
-      <c r="I104" s="113"/>
+      <c r="G104" s="115"/>
+      <c r="H104" s="115"/>
+      <c r="I104" s="115"/>
       <c r="J104" s="1"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="107">
+      <c r="A105" s="127">
         <v>12</v>
       </c>
       <c r="B105" s="14"/>
@@ -3290,7 +3449,7 @@
       <c r="J105" s="1"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="107"/>
+      <c r="A106" s="127"/>
       <c r="B106" s="12"/>
       <c r="C106" s="16"/>
       <c r="D106" s="82"/>
@@ -3302,7 +3461,7 @@
       <c r="J106" s="1"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="107"/>
+      <c r="A107" s="127"/>
       <c r="B107" s="12"/>
       <c r="C107" s="16"/>
       <c r="D107" s="82"/>
@@ -3314,7 +3473,7 @@
       <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="107"/>
+      <c r="A108" s="127"/>
       <c r="B108" s="12"/>
       <c r="C108" s="16"/>
       <c r="D108" s="25"/>
@@ -3326,7 +3485,7 @@
       <c r="J108" s="1"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="107"/>
+      <c r="A109" s="127"/>
       <c r="B109" s="14"/>
       <c r="C109" s="17"/>
       <c r="D109" s="25"/>
@@ -3338,13 +3497,13 @@
       <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="108"/>
-      <c r="B110" s="109" t="s">
+      <c r="A110" s="131"/>
+      <c r="B110" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="110"/>
-      <c r="D110" s="110"/>
-      <c r="E110" s="111"/>
+      <c r="C110" s="119"/>
+      <c r="D110" s="119"/>
+      <c r="E110" s="120"/>
       <c r="F110" s="30">
         <f>SUM(F105:F109)</f>
         <v>0</v>
@@ -3355,47 +3514,47 @@
       <c r="J110" s="1"/>
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="124"/>
-      <c r="B111" s="125"/>
-      <c r="C111" s="125"/>
-      <c r="D111" s="125"/>
-      <c r="E111" s="125"/>
-      <c r="F111" s="125"/>
-      <c r="G111" s="125"/>
-      <c r="H111" s="125"/>
-      <c r="I111" s="126"/>
+      <c r="A111" s="123"/>
+      <c r="B111" s="124"/>
+      <c r="C111" s="124"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="124"/>
+      <c r="G111" s="124"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="125"/>
       <c r="J111" s="1"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="112" t="s">
+      <c r="A112" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="112" t="s">
+      <c r="B112" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="114" t="s">
+      <c r="C112" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="116" t="s">
+      <c r="D112" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="117"/>
-      <c r="F112" s="118"/>
-      <c r="G112" s="112" t="s">
+      <c r="E112" s="129"/>
+      <c r="F112" s="130"/>
+      <c r="G112" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H112" s="112" t="s">
+      <c r="H112" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I112" s="112" t="s">
+      <c r="I112" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J112" s="1"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="113"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="115"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="117"/>
       <c r="D113" s="34" t="s">
         <v>13</v>
       </c>
@@ -3405,13 +3564,13 @@
       <c r="F113" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G113" s="113"/>
-      <c r="H113" s="113"/>
-      <c r="I113" s="113"/>
+      <c r="G113" s="115"/>
+      <c r="H113" s="115"/>
+      <c r="I113" s="115"/>
       <c r="J113" s="1"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="106">
+      <c r="A114" s="126">
         <v>13</v>
       </c>
       <c r="B114" s="17"/>
@@ -3425,7 +3584,7 @@
       <c r="J114" s="1"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A115" s="107"/>
+      <c r="A115" s="127"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="82"/>
@@ -3437,7 +3596,7 @@
       <c r="J115" s="1"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A116" s="107"/>
+      <c r="A116" s="127"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="82"/>
@@ -3449,7 +3608,7 @@
       <c r="J116" s="1"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A117" s="107"/>
+      <c r="A117" s="127"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="82"/>
@@ -3461,7 +3620,7 @@
       <c r="J117" s="1"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A118" s="107"/>
+      <c r="A118" s="127"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="82"/>
@@ -3473,13 +3632,13 @@
       <c r="J118" s="1"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="108"/>
-      <c r="B119" s="109" t="s">
+      <c r="A119" s="131"/>
+      <c r="B119" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="110"/>
-      <c r="D119" s="110"/>
-      <c r="E119" s="111"/>
+      <c r="C119" s="119"/>
+      <c r="D119" s="119"/>
+      <c r="E119" s="120"/>
       <c r="F119" s="30">
         <f>SUM(F114:F118)</f>
         <v>0</v>
@@ -3490,47 +3649,47 @@
       <c r="J119" s="1"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="99"/>
-      <c r="B120" s="100"/>
-      <c r="C120" s="100"/>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100"/>
-      <c r="F120" s="100"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="100"/>
-      <c r="I120" s="101"/>
+      <c r="A120" s="96"/>
+      <c r="B120" s="97"/>
+      <c r="C120" s="97"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="97"/>
+      <c r="G120" s="97"/>
+      <c r="H120" s="97"/>
+      <c r="I120" s="98"/>
       <c r="J120" s="1"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A121" s="112" t="s">
+      <c r="A121" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="112" t="s">
+      <c r="B121" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="114" t="s">
+      <c r="C121" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="116" t="s">
+      <c r="D121" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="117"/>
-      <c r="F121" s="118"/>
-      <c r="G121" s="112" t="s">
+      <c r="E121" s="129"/>
+      <c r="F121" s="130"/>
+      <c r="G121" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H121" s="112" t="s">
+      <c r="H121" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I121" s="122" t="s">
+      <c r="I121" s="132" t="s">
         <v>6</v>
       </c>
       <c r="J121" s="1"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="113"/>
-      <c r="B122" s="113"/>
-      <c r="C122" s="115"/>
+      <c r="A122" s="115"/>
+      <c r="B122" s="115"/>
+      <c r="C122" s="117"/>
       <c r="D122" s="70" t="s">
         <v>13</v>
       </c>
@@ -3540,13 +3699,13 @@
       <c r="F122" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="113"/>
-      <c r="H122" s="113"/>
-      <c r="I122" s="123"/>
+      <c r="G122" s="115"/>
+      <c r="H122" s="115"/>
+      <c r="I122" s="133"/>
       <c r="J122" s="1"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A123" s="106">
+      <c r="A123" s="126">
         <v>14</v>
       </c>
       <c r="B123" s="14"/>
@@ -3560,7 +3719,7 @@
       <c r="J123" s="1"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A124" s="107"/>
+      <c r="A124" s="127"/>
       <c r="B124" s="14"/>
       <c r="C124" s="11"/>
       <c r="D124" s="82"/>
@@ -3572,7 +3731,7 @@
       <c r="J124" s="1"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" s="107"/>
+      <c r="A125" s="127"/>
       <c r="B125" s="14"/>
       <c r="C125" s="11"/>
       <c r="D125" s="82"/>
@@ -3584,7 +3743,7 @@
       <c r="J125" s="1"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A126" s="107"/>
+      <c r="A126" s="127"/>
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
       <c r="D126" s="82"/>
@@ -3596,7 +3755,7 @@
       <c r="J126" s="1"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A127" s="107"/>
+      <c r="A127" s="127"/>
       <c r="B127" s="14"/>
       <c r="C127" s="11"/>
       <c r="D127" s="82"/>
@@ -3608,13 +3767,13 @@
       <c r="J127" s="1"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A128" s="108"/>
-      <c r="B128" s="109" t="s">
+      <c r="A128" s="131"/>
+      <c r="B128" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="110"/>
-      <c r="D128" s="110"/>
-      <c r="E128" s="111"/>
+      <c r="C128" s="119"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="120"/>
       <c r="F128" s="30">
         <f>SUM(F123:F127)</f>
         <v>0</v>
@@ -3625,47 +3784,47 @@
       <c r="J128" s="1"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A129" s="99"/>
-      <c r="B129" s="100"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="100"/>
-      <c r="F129" s="100"/>
-      <c r="G129" s="100"/>
-      <c r="H129" s="100"/>
-      <c r="I129" s="101"/>
+      <c r="A129" s="96"/>
+      <c r="B129" s="97"/>
+      <c r="C129" s="97"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="97"/>
+      <c r="G129" s="97"/>
+      <c r="H129" s="97"/>
+      <c r="I129" s="98"/>
       <c r="J129" s="1"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A130" s="112" t="s">
+      <c r="A130" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="112" t="s">
+      <c r="B130" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="114" t="s">
+      <c r="C130" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="109" t="s">
+      <c r="D130" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="110"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="112" t="s">
+      <c r="E130" s="119"/>
+      <c r="F130" s="120"/>
+      <c r="G130" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H130" s="112" t="s">
+      <c r="H130" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I130" s="112" t="s">
+      <c r="I130" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J130" s="1"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="113"/>
-      <c r="B131" s="113"/>
-      <c r="C131" s="115"/>
+      <c r="A131" s="115"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="117"/>
       <c r="D131" s="70" t="s">
         <v>13</v>
       </c>
@@ -3675,13 +3834,13 @@
       <c r="F131" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G131" s="113"/>
-      <c r="H131" s="113"/>
-      <c r="I131" s="113"/>
+      <c r="G131" s="115"/>
+      <c r="H131" s="115"/>
+      <c r="I131" s="115"/>
       <c r="J131" s="1"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="106">
+      <c r="A132" s="126">
         <v>15</v>
       </c>
       <c r="B132" s="12"/>
@@ -3695,7 +3854,7 @@
       <c r="J132" s="1"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A133" s="107"/>
+      <c r="A133" s="127"/>
       <c r="B133" s="12"/>
       <c r="C133" s="13"/>
       <c r="D133" s="82"/>
@@ -3707,7 +3866,7 @@
       <c r="J133" s="1"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="107"/>
+      <c r="A134" s="127"/>
       <c r="B134" s="12"/>
       <c r="C134" s="13"/>
       <c r="D134" s="82"/>
@@ -3719,7 +3878,7 @@
       <c r="J134" s="1"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A135" s="107"/>
+      <c r="A135" s="127"/>
       <c r="B135" s="12"/>
       <c r="C135" s="13"/>
       <c r="D135" s="82"/>
@@ -3731,7 +3890,7 @@
       <c r="J135" s="1"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A136" s="107"/>
+      <c r="A136" s="127"/>
       <c r="B136" s="12"/>
       <c r="C136" s="13"/>
       <c r="D136" s="82"/>
@@ -3743,13 +3902,13 @@
       <c r="J136" s="1"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A137" s="108"/>
-      <c r="B137" s="119" t="s">
+      <c r="A137" s="131"/>
+      <c r="B137" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="120"/>
-      <c r="D137" s="120"/>
-      <c r="E137" s="121"/>
+      <c r="C137" s="135"/>
+      <c r="D137" s="135"/>
+      <c r="E137" s="136"/>
       <c r="F137" s="28">
         <f>SUM(F132:F136)</f>
         <v>0</v>
@@ -3760,47 +3919,47 @@
       <c r="J137" s="1"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A138" s="99"/>
-      <c r="B138" s="100"/>
-      <c r="C138" s="100"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100"/>
-      <c r="G138" s="100"/>
-      <c r="H138" s="100"/>
-      <c r="I138" s="101"/>
+      <c r="A138" s="96"/>
+      <c r="B138" s="97"/>
+      <c r="C138" s="97"/>
+      <c r="D138" s="97"/>
+      <c r="E138" s="97"/>
+      <c r="F138" s="97"/>
+      <c r="G138" s="97"/>
+      <c r="H138" s="97"/>
+      <c r="I138" s="98"/>
       <c r="J138" s="1"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A139" s="112" t="s">
+      <c r="A139" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="112" t="s">
+      <c r="B139" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="114" t="s">
+      <c r="C139" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="116" t="s">
+      <c r="D139" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="117"/>
-      <c r="F139" s="118"/>
-      <c r="G139" s="112" t="s">
+      <c r="E139" s="129"/>
+      <c r="F139" s="130"/>
+      <c r="G139" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H139" s="112" t="s">
+      <c r="H139" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I139" s="112" t="s">
+      <c r="I139" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J139" s="1"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A140" s="113"/>
-      <c r="B140" s="113"/>
-      <c r="C140" s="115"/>
+      <c r="A140" s="115"/>
+      <c r="B140" s="115"/>
+      <c r="C140" s="117"/>
       <c r="D140" s="70" t="s">
         <v>13</v>
       </c>
@@ -3810,13 +3969,13 @@
       <c r="F140" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G140" s="113"/>
-      <c r="H140" s="113"/>
-      <c r="I140" s="113"/>
+      <c r="G140" s="115"/>
+      <c r="H140" s="115"/>
+      <c r="I140" s="115"/>
       <c r="J140" s="1"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A141" s="106">
+      <c r="A141" s="126">
         <v>16</v>
       </c>
       <c r="B141" s="72"/>
@@ -3829,7 +3988,7 @@
       <c r="J141" s="1"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A142" s="107"/>
+      <c r="A142" s="127"/>
       <c r="B142" s="72"/>
       <c r="C142" s="73"/>
       <c r="D142" s="73"/>
@@ -3840,7 +3999,7 @@
       <c r="J142" s="1"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="107"/>
+      <c r="A143" s="127"/>
       <c r="B143" s="72"/>
       <c r="C143" s="73"/>
       <c r="D143" s="73"/>
@@ -3851,7 +4010,7 @@
       <c r="J143" s="1"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="107"/>
+      <c r="A144" s="127"/>
       <c r="B144" s="72"/>
       <c r="C144" s="73"/>
       <c r="D144" s="73"/>
@@ -3862,7 +4021,7 @@
       <c r="J144" s="1"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A145" s="107"/>
+      <c r="A145" s="127"/>
       <c r="B145" s="72"/>
       <c r="C145" s="73"/>
       <c r="D145" s="73"/>
@@ -3873,13 +4032,13 @@
       <c r="J145" s="1"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="108"/>
-      <c r="B146" s="109" t="s">
+      <c r="A146" s="131"/>
+      <c r="B146" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C146" s="110"/>
-      <c r="D146" s="110"/>
-      <c r="E146" s="111"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="120"/>
       <c r="F146" s="30">
         <f>SUM(F141:F145)</f>
         <v>0</v>
@@ -3890,47 +4049,47 @@
       <c r="J146" s="1"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A147" s="99"/>
-      <c r="B147" s="100"/>
-      <c r="C147" s="100"/>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100"/>
-      <c r="F147" s="100"/>
-      <c r="G147" s="100"/>
-      <c r="H147" s="100"/>
-      <c r="I147" s="101"/>
+      <c r="A147" s="96"/>
+      <c r="B147" s="97"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="97"/>
+      <c r="I147" s="98"/>
       <c r="J147" s="1"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A148" s="112" t="s">
+      <c r="A148" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="112" t="s">
+      <c r="B148" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="114" t="s">
+      <c r="C148" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="116" t="s">
+      <c r="D148" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="117"/>
-      <c r="F148" s="118"/>
-      <c r="G148" s="112" t="s">
+      <c r="E148" s="129"/>
+      <c r="F148" s="130"/>
+      <c r="G148" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H148" s="112" t="s">
+      <c r="H148" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="I148" s="112" t="s">
+      <c r="I148" s="114" t="s">
         <v>6</v>
       </c>
       <c r="J148" s="1"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A149" s="113"/>
-      <c r="B149" s="113"/>
-      <c r="C149" s="115"/>
+      <c r="A149" s="115"/>
+      <c r="B149" s="115"/>
+      <c r="C149" s="117"/>
       <c r="D149" s="70" t="s">
         <v>13</v>
       </c>
@@ -3940,13 +4099,13 @@
       <c r="F149" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="G149" s="113"/>
-      <c r="H149" s="113"/>
-      <c r="I149" s="113"/>
+      <c r="G149" s="115"/>
+      <c r="H149" s="115"/>
+      <c r="I149" s="115"/>
       <c r="J149" s="1"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150" s="94">
+      <c r="A150" s="107">
         <v>17</v>
       </c>
       <c r="B150" s="11"/>
@@ -3960,7 +4119,7 @@
       <c r="J150" s="1"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151" s="94"/>
+      <c r="A151" s="107"/>
       <c r="B151" s="11"/>
       <c r="C151" s="17"/>
       <c r="D151" s="82"/>
@@ -3972,7 +4131,7 @@
       <c r="J151" s="1"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A152" s="94"/>
+      <c r="A152" s="107"/>
       <c r="B152" s="11"/>
       <c r="C152" s="17"/>
       <c r="D152" s="82"/>
@@ -3984,7 +4143,7 @@
       <c r="J152" s="1"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A153" s="94"/>
+      <c r="A153" s="107"/>
       <c r="B153" s="11"/>
       <c r="C153" s="17"/>
       <c r="D153" s="82"/>
@@ -3996,7 +4155,7 @@
       <c r="J153" s="1"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A154" s="94"/>
+      <c r="A154" s="107"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="25"/>
@@ -4008,13 +4167,13 @@
       <c r="J154" s="1"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="98"/>
-      <c r="B155" s="95" t="s">
+      <c r="A155" s="110"/>
+      <c r="B155" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C155" s="96"/>
-      <c r="D155" s="96"/>
-      <c r="E155" s="97"/>
+      <c r="C155" s="104"/>
+      <c r="D155" s="104"/>
+      <c r="E155" s="105"/>
       <c r="F155" s="30">
         <f>SUM(F150:F154)</f>
         <v>0</v>
@@ -4025,36 +4184,36 @@
       <c r="J155" s="1"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="99"/>
-      <c r="B156" s="100"/>
-      <c r="C156" s="100"/>
-      <c r="D156" s="100"/>
-      <c r="E156" s="100"/>
-      <c r="F156" s="100"/>
-      <c r="G156" s="100"/>
-      <c r="H156" s="100"/>
-      <c r="I156" s="101"/>
+      <c r="A156" s="96"/>
+      <c r="B156" s="97"/>
+      <c r="C156" s="97"/>
+      <c r="D156" s="97"/>
+      <c r="E156" s="97"/>
+      <c r="F156" s="97"/>
+      <c r="G156" s="97"/>
+      <c r="H156" s="97"/>
+      <c r="I156" s="98"/>
       <c r="J156" s="1"/>
     </row>
     <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="102" t="s">
+      <c r="A157" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="102" t="s">
+      <c r="B157" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="104" t="s">
+      <c r="C157" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="95" t="s">
+      <c r="D157" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="96"/>
-      <c r="F157" s="97"/>
-      <c r="G157" s="102" t="s">
+      <c r="E157" s="104"/>
+      <c r="F157" s="105"/>
+      <c r="G157" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H157" s="102" t="s">
+      <c r="H157" s="99" t="s">
         <v>5</v>
       </c>
       <c r="I157" s="64" t="s">
@@ -4063,9 +4222,9 @@
       <c r="J157" s="1"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="103"/>
-      <c r="B158" s="103"/>
-      <c r="C158" s="105"/>
+      <c r="A158" s="100"/>
+      <c r="B158" s="100"/>
+      <c r="C158" s="102"/>
       <c r="D158" s="27" t="s">
         <v>7</v>
       </c>
@@ -4075,13 +4234,13 @@
       <c r="F158" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G158" s="103"/>
-      <c r="H158" s="103"/>
+      <c r="G158" s="100"/>
+      <c r="H158" s="100"/>
       <c r="I158" s="67"/>
       <c r="J158" s="1"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" s="93">
+      <c r="A159" s="106">
         <v>18</v>
       </c>
       <c r="B159" s="17"/>
@@ -4095,7 +4254,7 @@
       <c r="J159" s="1"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" s="94"/>
+      <c r="A160" s="107"/>
       <c r="B160" s="11"/>
       <c r="C160" s="87"/>
       <c r="D160" s="88"/>
@@ -4107,7 +4266,7 @@
       <c r="J160" s="1"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A161" s="94"/>
+      <c r="A161" s="107"/>
       <c r="B161" s="11"/>
       <c r="C161" s="87"/>
       <c r="D161" s="88"/>
@@ -4119,7 +4278,7 @@
       <c r="J161" s="1"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A162" s="94"/>
+      <c r="A162" s="107"/>
       <c r="B162" s="11"/>
       <c r="C162" s="17"/>
       <c r="D162" s="82"/>
@@ -4131,7 +4290,7 @@
       <c r="J162" s="1"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A163" s="94"/>
+      <c r="A163" s="107"/>
       <c r="B163" s="8"/>
       <c r="C163" s="9"/>
       <c r="D163" s="25"/>
@@ -4143,13 +4302,13 @@
       <c r="J163" s="1"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A164" s="94"/>
-      <c r="B164" s="95" t="s">
+      <c r="A164" s="107"/>
+      <c r="B164" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="96"/>
-      <c r="D164" s="96"/>
-      <c r="E164" s="97"/>
+      <c r="C164" s="104"/>
+      <c r="D164" s="104"/>
+      <c r="E164" s="105"/>
       <c r="F164" s="30">
         <f>SUM(F159:F163)</f>
         <v>0</v>
@@ -4160,35 +4319,35 @@
       <c r="J164" s="1"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A165" s="99"/>
-      <c r="B165" s="100"/>
-      <c r="C165" s="100"/>
-      <c r="D165" s="100"/>
-      <c r="E165" s="100"/>
-      <c r="F165" s="100"/>
-      <c r="G165" s="100"/>
-      <c r="H165" s="100"/>
-      <c r="I165" s="101"/>
+      <c r="A165" s="96"/>
+      <c r="B165" s="97"/>
+      <c r="C165" s="97"/>
+      <c r="D165" s="97"/>
+      <c r="E165" s="97"/>
+      <c r="F165" s="97"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="98"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A166" s="102" t="s">
+      <c r="A166" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="102" t="s">
+      <c r="B166" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="104" t="s">
+      <c r="C166" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="95" t="s">
+      <c r="D166" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="96"/>
-      <c r="F166" s="97"/>
-      <c r="G166" s="102" t="s">
+      <c r="E166" s="104"/>
+      <c r="F166" s="105"/>
+      <c r="G166" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H166" s="102" t="s">
+      <c r="H166" s="99" t="s">
         <v>5</v>
       </c>
       <c r="I166" s="78" t="s">
@@ -4196,9 +4355,9 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="103"/>
-      <c r="B167" s="103"/>
-      <c r="C167" s="105"/>
+      <c r="A167" s="100"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="102"/>
       <c r="D167" s="27" t="s">
         <v>7</v>
       </c>
@@ -4208,12 +4367,12 @@
       <c r="F167" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G167" s="103"/>
-      <c r="H167" s="103"/>
+      <c r="G167" s="100"/>
+      <c r="H167" s="100"/>
       <c r="I167" s="81"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="93">
+      <c r="A168" s="106">
         <v>19</v>
       </c>
       <c r="B168" s="17"/>
@@ -4226,7 +4385,7 @@
       <c r="I168" s="19"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A169" s="94"/>
+      <c r="A169" s="107"/>
       <c r="B169" s="11"/>
       <c r="C169" s="87"/>
       <c r="D169" s="88"/>
@@ -4237,7 +4396,7 @@
       <c r="I169" s="88"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="94"/>
+      <c r="A170" s="107"/>
       <c r="B170" s="11"/>
       <c r="C170" s="87"/>
       <c r="D170" s="88"/>
@@ -4248,7 +4407,7 @@
       <c r="I170" s="88"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A171" s="94"/>
+      <c r="A171" s="107"/>
       <c r="B171" s="11"/>
       <c r="C171" s="17"/>
       <c r="D171" s="82"/>
@@ -4259,7 +4418,7 @@
       <c r="I171" s="19"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A172" s="94"/>
+      <c r="A172" s="107"/>
       <c r="B172" s="8"/>
       <c r="C172" s="9"/>
       <c r="D172" s="82"/>
@@ -4270,13 +4429,13 @@
       <c r="I172" s="19"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="94"/>
-      <c r="B173" s="95" t="s">
+      <c r="A173" s="107"/>
+      <c r="B173" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="96"/>
-      <c r="D173" s="96"/>
-      <c r="E173" s="97"/>
+      <c r="C173" s="104"/>
+      <c r="D173" s="104"/>
+      <c r="E173" s="105"/>
       <c r="F173" s="30">
         <f>SUM(F168:F172)</f>
         <v>0</v>
@@ -4286,35 +4445,35 @@
       <c r="I173" s="20"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A174" s="99"/>
-      <c r="B174" s="100"/>
-      <c r="C174" s="100"/>
-      <c r="D174" s="100"/>
-      <c r="E174" s="100"/>
-      <c r="F174" s="100"/>
-      <c r="G174" s="100"/>
-      <c r="H174" s="100"/>
-      <c r="I174" s="101"/>
+      <c r="A174" s="96"/>
+      <c r="B174" s="97"/>
+      <c r="C174" s="97"/>
+      <c r="D174" s="97"/>
+      <c r="E174" s="97"/>
+      <c r="F174" s="97"/>
+      <c r="G174" s="97"/>
+      <c r="H174" s="97"/>
+      <c r="I174" s="98"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A175" s="102" t="s">
+      <c r="A175" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B175" s="102" t="s">
+      <c r="B175" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C175" s="104" t="s">
+      <c r="C175" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="95" t="s">
+      <c r="D175" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E175" s="96"/>
-      <c r="F175" s="97"/>
-      <c r="G175" s="102" t="s">
+      <c r="E175" s="104"/>
+      <c r="F175" s="105"/>
+      <c r="G175" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="H175" s="102" t="s">
+      <c r="H175" s="99" t="s">
         <v>5</v>
       </c>
       <c r="I175" s="78" t="s">
@@ -4322,9 +4481,9 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A176" s="103"/>
-      <c r="B176" s="103"/>
-      <c r="C176" s="105"/>
+      <c r="A176" s="100"/>
+      <c r="B176" s="100"/>
+      <c r="C176" s="102"/>
       <c r="D176" s="27" t="s">
         <v>7</v>
       </c>
@@ -4334,12 +4493,12 @@
       <c r="F176" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G176" s="103"/>
-      <c r="H176" s="103"/>
+      <c r="G176" s="100"/>
+      <c r="H176" s="100"/>
       <c r="I176" s="81"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="93">
+      <c r="A177" s="106">
         <v>20</v>
       </c>
       <c r="B177" s="17"/>
@@ -4352,7 +4511,7 @@
       <c r="I177" s="19"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="94"/>
+      <c r="A178" s="107"/>
       <c r="B178" s="11"/>
       <c r="C178" s="87"/>
       <c r="D178" s="88"/>
@@ -4363,7 +4522,7 @@
       <c r="I178" s="88"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="94"/>
+      <c r="A179" s="107"/>
       <c r="B179" s="11"/>
       <c r="C179" s="87"/>
       <c r="D179" s="88"/>
@@ -4374,7 +4533,7 @@
       <c r="I179" s="88"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="94"/>
+      <c r="A180" s="107"/>
       <c r="B180" s="11"/>
       <c r="C180" s="17"/>
       <c r="D180" s="82"/>
@@ -4385,7 +4544,7 @@
       <c r="I180" s="19"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="94"/>
+      <c r="A181" s="107"/>
       <c r="B181" s="8"/>
       <c r="C181" s="9"/>
       <c r="D181" s="82"/>
@@ -4396,13 +4555,13 @@
       <c r="I181" s="19"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="94"/>
-      <c r="B182" s="95" t="s">
+      <c r="A182" s="107"/>
+      <c r="B182" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C182" s="96"/>
-      <c r="D182" s="96"/>
-      <c r="E182" s="97"/>
+      <c r="C182" s="104"/>
+      <c r="D182" s="104"/>
+      <c r="E182" s="105"/>
       <c r="F182" s="33">
         <f>SUM(F177:F181)</f>
         <v>0</v>
@@ -4411,36 +4570,573 @@
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
     </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="144"/>
+      <c r="B183" s="144"/>
+      <c r="C183" s="144"/>
+      <c r="D183" s="144"/>
+      <c r="E183" s="144"/>
+      <c r="F183" s="144"/>
+      <c r="G183" s="144"/>
+      <c r="H183" s="144"/>
+      <c r="I183" s="144"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="122"/>
+      <c r="F184" s="122"/>
+      <c r="G184" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="H184" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" s="145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="145"/>
+      <c r="B185" s="145"/>
+      <c r="C185" s="146"/>
+      <c r="D185" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="145"/>
+      <c r="H185" s="145"/>
+      <c r="I185" s="145"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="126">
+        <v>1</v>
+      </c>
+      <c r="B186" s="87"/>
+      <c r="C186" s="87"/>
+      <c r="D186" s="93"/>
+      <c r="E186" s="93"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="127"/>
+      <c r="B187" s="87"/>
+      <c r="C187" s="87"/>
+      <c r="D187" s="93"/>
+      <c r="E187" s="93"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="127"/>
+      <c r="B188" s="87"/>
+      <c r="C188" s="87"/>
+      <c r="D188" s="93"/>
+      <c r="E188" s="93"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="127"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="87"/>
+      <c r="D189" s="93"/>
+      <c r="E189" s="93"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="127"/>
+      <c r="B190" s="87"/>
+      <c r="C190" s="87"/>
+      <c r="D190" s="93"/>
+      <c r="E190" s="93"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="131"/>
+      <c r="B191" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" s="122"/>
+      <c r="D191" s="122"/>
+      <c r="E191" s="122"/>
+      <c r="F191" s="33">
+        <f>SUM(F186:F190)</f>
+        <v>0</v>
+      </c>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="144"/>
+      <c r="B192" s="144"/>
+      <c r="C192" s="144"/>
+      <c r="D192" s="144"/>
+      <c r="E192" s="144"/>
+      <c r="F192" s="144"/>
+      <c r="G192" s="144"/>
+      <c r="H192" s="144"/>
+      <c r="I192" s="144"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E193" s="122"/>
+      <c r="F193" s="122"/>
+      <c r="G193" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="H193" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="145"/>
+      <c r="B194" s="145"/>
+      <c r="C194" s="146"/>
+      <c r="D194" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" s="145"/>
+      <c r="H194" s="145"/>
+      <c r="I194" s="145"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="121">
+        <v>2</v>
+      </c>
+      <c r="B195" s="77"/>
+      <c r="C195" s="77"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="48"/>
+      <c r="I195" s="48"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="121"/>
+      <c r="B196" s="77"/>
+      <c r="C196" s="77"/>
+      <c r="D196" s="74"/>
+      <c r="E196" s="74"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="48"/>
+      <c r="I196" s="48"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="121"/>
+      <c r="B197" s="77"/>
+      <c r="C197" s="77"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="74"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="48"/>
+      <c r="I197" s="48"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="121"/>
+      <c r="B198" s="77"/>
+      <c r="C198" s="77"/>
+      <c r="D198" s="74"/>
+      <c r="E198" s="74"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="48"/>
+      <c r="I198" s="48"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="121"/>
+      <c r="B199" s="77"/>
+      <c r="C199" s="77"/>
+      <c r="D199" s="74"/>
+      <c r="E199" s="74"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="48"/>
+      <c r="I199" s="48"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="121"/>
+      <c r="B200" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="122"/>
+      <c r="D200" s="122"/>
+      <c r="E200" s="122"/>
+      <c r="F200" s="33">
+        <f>SUM(F195:F199)</f>
+        <v>0</v>
+      </c>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="144"/>
+      <c r="B201" s="144"/>
+      <c r="C201" s="144"/>
+      <c r="D201" s="144"/>
+      <c r="E201" s="144"/>
+      <c r="F201" s="144"/>
+      <c r="G201" s="144"/>
+      <c r="H201" s="144"/>
+      <c r="I201" s="144"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" s="122"/>
+      <c r="F202" s="122"/>
+      <c r="G202" s="145" t="s">
+        <v>4</v>
+      </c>
+      <c r="H202" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="I202" s="145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="145"/>
+      <c r="B203" s="145"/>
+      <c r="C203" s="146"/>
+      <c r="D203" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" s="145"/>
+      <c r="H203" s="145"/>
+      <c r="I203" s="145"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="126">
+        <v>3</v>
+      </c>
+      <c r="B204" s="17"/>
+      <c r="C204" s="17"/>
+      <c r="D204" s="95"/>
+      <c r="E204" s="95"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="95"/>
+      <c r="H204" s="95"/>
+      <c r="I204" s="19"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="127"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="17"/>
+      <c r="D205" s="95"/>
+      <c r="E205" s="95"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="95"/>
+      <c r="H205" s="95"/>
+      <c r="I205" s="19"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="127"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="17"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="95"/>
+      <c r="H206" s="95"/>
+      <c r="I206" s="19"/>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="127"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="17"/>
+      <c r="D207" s="95"/>
+      <c r="E207" s="95"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="95"/>
+      <c r="H207" s="95"/>
+      <c r="I207" s="19"/>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="131"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="95"/>
+      <c r="E208" s="95"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="95"/>
+      <c r="H208" s="95"/>
+      <c r="I208" s="19"/>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="140"/>
+      <c r="B209" s="141"/>
+      <c r="C209" s="141"/>
+      <c r="D209" s="141"/>
+      <c r="E209" s="142"/>
+      <c r="F209" s="33">
+        <f>SUM(F204:F208)</f>
+        <v>0</v>
+      </c>
+      <c r="G209" s="95"/>
+      <c r="H209" s="95"/>
+      <c r="I209" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="198">
-    <mergeCell ref="A174:I174"/>
-    <mergeCell ref="A175:A176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="H175:H176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="A165:I165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B173:E173"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
+  <mergeCells count="228">
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="A201:I201"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="C202:C203"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="G202:G203"/>
+    <mergeCell ref="H202:H203"/>
+    <mergeCell ref="I202:I203"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="A192:I192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="H193:H194"/>
+    <mergeCell ref="I193:I194"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="A183:I183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:F184"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="A156:I156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="A147:I147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="A129:I129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="H130:H131"/>
+    <mergeCell ref="I130:I131"/>
+    <mergeCell ref="A114:A119"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="H121:H122"/>
+    <mergeCell ref="I121:I122"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="H103:H104"/>
+    <mergeCell ref="I103:I104"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="I85:I86"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A12:I12"/>
@@ -4452,253 +5148,132 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:I84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="I85:I86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="A93:I93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="A102:I102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="H103:H104"/>
-    <mergeCell ref="I103:I104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="A114:A119"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="G121:G122"/>
-    <mergeCell ref="H121:H122"/>
-    <mergeCell ref="I121:I122"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="A129:I129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="H130:H131"/>
-    <mergeCell ref="I130:I131"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="A147:I147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="A159:A164"/>
-    <mergeCell ref="B164:E164"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="A156:I156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A165:I165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:F166"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B173:E173"/>
+    <mergeCell ref="A174:I174"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="G175:G176"/>
+    <mergeCell ref="H175:H176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B182:E182"/>
   </mergeCells>
   <conditionalFormatting sqref="B154">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:C89">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:C118">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C28">
-    <cfRule type="cellIs" dxfId="27" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="60" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C64">
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C73">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="cellIs" dxfId="24" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90:C91">
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96:C100">
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C109">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150:C154">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141:H145">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C180">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+      <formula>"&gt;10"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B195:C199">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"&gt;10"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204:C208">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"&gt;10"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4722,7 +5297,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="A26" sqref="A26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4747,83 +5322,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
       <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
       <c r="J3" s="58"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="156"/>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="136" t="s">
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="136" t="s">
+      <c r="H4" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="145" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
       <c r="D5" s="55" t="s">
         <v>13</v>
       </c>
@@ -4833,9 +5408,9 @@
       <c r="F5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
       <c r="J5" s="59"/>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -4844,7 +5419,7 @@
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106">
+      <c r="A6" s="126">
         <v>1</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -4880,7 +5455,7 @@
       <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="107"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -4913,7 +5488,7 @@
       <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
@@ -4947,7 +5522,7 @@
       <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="17" t="s">
         <v>35</v>
       </c>
@@ -4975,18 +5550,18 @@
       <c r="J9" s="61"/>
       <c r="R9" s="46"/>
       <c r="T9" s="22"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
+      <c r="U9" s="152"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="127" t="s">
+      <c r="A10" s="131"/>
+      <c r="B10" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
       <c r="F10" s="33">
         <f>SUM(F6:F9)</f>
         <v>17</v>
@@ -4995,49 +5570,49 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="21"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="142"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
       <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="136" t="s">
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="136" t="s">
+      <c r="H12" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="149" t="s">
+      <c r="J12" s="151" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="47"/>
@@ -5054,9 +5629,9 @@
       <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="136"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="137"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="55" t="s">
         <v>13</v>
       </c>
@@ -5066,14 +5641,14 @@
       <c r="F13" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="149"/>
-      <c r="W13" s="143"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="151"/>
+      <c r="W13" s="147"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="128">
+      <c r="A14" s="121">
         <v>2</v>
       </c>
       <c r="B14" s="77" t="s">
@@ -5105,10 +5680,10 @@
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
-      <c r="W14" s="144"/>
+      <c r="W14" s="148"/>
     </row>
     <row r="15" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="77" t="s">
         <v>54</v>
       </c>
@@ -5141,7 +5716,7 @@
       <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="128"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="17" t="s">
         <v>53</v>
       </c>
@@ -5182,7 +5757,7 @@
       <c r="V16" s="22"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="128"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="17" t="s">
         <v>35</v>
       </c>
@@ -5216,13 +5791,13 @@
       <c r="W17" s="22"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="128"/>
-      <c r="B18" s="127" t="s">
+      <c r="A18" s="121"/>
+      <c r="B18" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="33">
         <f>SUM(F14:F17)</f>
         <v>16</v>
@@ -5234,41 +5809,41 @@
       <c r="R18" s="50"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
       <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="136" t="s">
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="136" t="s">
+      <c r="H20" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="136" t="s">
+      <c r="I20" s="145" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="59"/>
@@ -5279,9 +5854,9 @@
       <c r="W20" s="45"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="136"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="55" t="s">
         <v>13</v>
       </c>
@@ -5291,16 +5866,16 @@
       <c r="F21" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
       <c r="J21" s="59"/>
-      <c r="T21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="147"/>
+      <c r="T21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="149"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="106">
+      <c r="A22" s="126">
         <v>3</v>
       </c>
       <c r="B22" s="17" t="s">
@@ -5329,13 +5904,13 @@
       </c>
       <c r="J22" s="21"/>
       <c r="R22" s="46"/>
-      <c r="T22" s="146"/>
+      <c r="T22" s="139"/>
       <c r="U22" s="22"/>
-      <c r="V22" s="146"/>
-      <c r="W22" s="148"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="150"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="23" t="s">
         <v>16</v>
       </c>
@@ -5367,7 +5942,7 @@
       <c r="V23" s="22"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="107"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="11" t="s">
         <v>22</v>
       </c>
@@ -5401,7 +5976,7 @@
       <c r="V24" s="51"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="17" t="s">
         <v>54</v>
       </c>
@@ -5432,11 +6007,11 @@
       <c r="V25" s="22"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="151"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
       <c r="F26" s="33">
         <f>SUM(F22:F25)</f>
         <v>16</v>
@@ -5453,49 +6028,49 @@
       <c r="W26" s="22"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
       <c r="J27" s="58"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="136" t="s">
+      <c r="A28" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="136" t="s">
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="136" t="s">
+      <c r="H28" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="136" t="s">
+      <c r="I28" s="145" t="s">
         <v>6</v>
       </c>
       <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="136"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="137"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
       <c r="D29" s="55" t="s">
         <v>13</v>
       </c>
@@ -5505,9 +6080,9 @@
       <c r="F29" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
       <c r="J29" s="59"/>
       <c r="S29" s="45"/>
       <c r="T29" s="45"/>
@@ -5516,7 +6091,7 @@
       <c r="W29" s="45"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="107">
+      <c r="A30" s="127">
         <v>4</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5551,7 +6126,7 @@
       <c r="W30" s="52"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="107"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="11" t="s">
         <v>28</v>
       </c>
@@ -5584,7 +6159,7 @@
       <c r="W31" s="54"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
+      <c r="A32" s="127"/>
       <c r="B32" s="12" t="s">
         <v>24</v>
       </c>
@@ -5614,12 +6189,12 @@
       <c r="R32" s="50"/>
       <c r="S32" s="51"/>
       <c r="T32" s="51"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
       <c r="W32" s="22"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="17" t="s">
         <v>30</v>
       </c>
@@ -5648,18 +6223,18 @@
       <c r="R33" s="50"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
-      <c r="U33" s="150"/>
-      <c r="V33" s="150"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="138"/>
       <c r="W33" s="22"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
-      <c r="B34" s="127" t="s">
+      <c r="A34" s="131"/>
+      <c r="B34" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
       <c r="F34" s="33">
         <f>SUM(F30:F33)</f>
         <v>16</v>
@@ -5668,19 +6243,19 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="21"/>
-      <c r="U34" s="146"/>
-      <c r="V34" s="146"/>
+      <c r="U34" s="139"/>
+      <c r="V34" s="139"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="134"/>
-      <c r="B35" s="134"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
+      <c r="A35" s="143"/>
+      <c r="B35" s="143"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
       <c r="J35" s="62"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
@@ -5799,43 +6374,55 @@
       <c r="I43" s="76"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="134"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
+      <c r="A44" s="143"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="143"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="134"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
+      <c r="A45" s="143"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A11:I11"/>
     <mergeCell ref="W13:W14"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B18:E18"/>
@@ -5852,32 +6439,20 @@
     <mergeCell ref="W21:W22"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A30:A34"/>
   </mergeCells>
   <conditionalFormatting sqref="B14:C14">
     <cfRule type="cellIs" dxfId="12" priority="27" operator="equal">
